--- a/data/Experimental Data.xlsx
+++ b/data/Experimental Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/shan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/FM24/hant/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E455C7-AC23-6E49-B613-228E8D6BDE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38389387-DA18-E14C-8B03-86B3359FF08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19760" activeTab="2" xr2:uid="{4171E658-EED0-5747-AC62-02656070F28E}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19760" xr2:uid="{4171E658-EED0-5747-AC62-02656070F28E}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1-Table" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Ground Truth</t>
   </si>
   <si>
-    <t>shan</t>
-  </si>
-  <si>
     <t>SpaceEx</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Executed</t>
+  </si>
+  <si>
+    <t>hant</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FACF2A-E248-534C-8FDA-43D644C552B5}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,29 +592,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="7"/>
@@ -629,25 +629,25 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>117</v>
@@ -682,13 +682,13 @@
         <v>0.5</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>0.57299999999999995</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1.52</v>
@@ -726,13 +726,13 @@
         <v>0.5</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <v>0.72499999999999998</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>64.989999999999995</v>
@@ -770,13 +770,13 @@
         <v>0.77</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>1.0289999999999999</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5">
         <v>0.53</v>
@@ -814,7 +814,7 @@
         <v>0.47</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6">
         <v>1.071</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>84</v>
@@ -855,7 +855,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7">
         <v>4.2229999999999999</v>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>0.44500000000000001</v>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -937,13 +937,13 @@
         <v>0.5</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9">
         <v>0.77100000000000002</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>0.33</v>
@@ -981,13 +981,13 @@
         <v>0.36</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10">
         <v>1.56</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>0.25</v>
@@ -1025,13 +1025,13 @@
         <v>0.33</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11">
         <v>0.98899999999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>8.91</v>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12">
         <v>627</v>
@@ -1069,7 +1069,7 @@
         <v>0.72</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12">
         <v>0.85299999999999998</v>
@@ -1110,13 +1110,13 @@
         <v>0.25</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13">
         <v>0.191</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>0.39</v>
@@ -3085,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE35945D-E516-AB45-8B17-F8B3ECBEF8EA}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3101,48 +3101,48 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>6.31</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -3221,7 +3221,7 @@
         <v>0.875</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3">
         <v>18.8</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -3266,7 +3266,7 @@
         <v>0.98230088495575218</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4">
         <v>81.2</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5">
         <v>12.3</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -3356,7 +3356,7 @@
         <v>0.89230769230769236</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>65.3</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -3401,7 +3401,7 @@
         <v>0.99629972247918597</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7">
         <v>264</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3446,7 +3446,7 @@
         <v>0.77142857142857146</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8">
         <v>107</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>16.899999999999999</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10">
         <v>13.6</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -3581,7 +3581,7 @@
         <v>0.98124999999999996</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11">
         <v>150</v>

--- a/data/Experimental Data.xlsx
+++ b/data/Experimental Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/FM24/hant/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rico/Documents/Working/shan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38389387-DA18-E14C-8B03-86B3359FF08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E455C7-AC23-6E49-B613-228E8D6BDE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19760" xr2:uid="{4171E658-EED0-5747-AC62-02656070F28E}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19760" activeTab="2" xr2:uid="{4171E658-EED0-5747-AC62-02656070F28E}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1-Table" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,9 @@
     <t>Ground Truth</t>
   </si>
   <si>
+    <t>shan</t>
+  </si>
+  <si>
     <t>SpaceEx</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
   </si>
   <si>
     <t>Executed</t>
-  </si>
-  <si>
-    <t>hant</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FACF2A-E248-534C-8FDA-43D644C552B5}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,29 +592,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="7"/>
@@ -629,25 +629,25 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>117</v>
@@ -682,13 +682,13 @@
         <v>0.5</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>0.57299999999999995</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1.52</v>
@@ -726,13 +726,13 @@
         <v>0.5</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>0.72499999999999998</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>64.989999999999995</v>
@@ -770,13 +770,13 @@
         <v>0.77</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <v>1.0289999999999999</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>0.53</v>
@@ -814,7 +814,7 @@
         <v>0.47</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>1.071</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>84</v>
@@ -855,7 +855,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7">
         <v>4.2229999999999999</v>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8">
         <v>0.44500000000000001</v>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -937,13 +937,13 @@
         <v>0.5</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <v>0.77100000000000002</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>0.33</v>
@@ -981,13 +981,13 @@
         <v>0.36</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <v>1.56</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>0.25</v>
@@ -1025,13 +1025,13 @@
         <v>0.33</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>0.98899999999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>8.91</v>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <v>627</v>
@@ -1069,7 +1069,7 @@
         <v>0.72</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <v>0.85299999999999998</v>
@@ -1110,13 +1110,13 @@
         <v>0.25</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>0.191</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>0.39</v>
@@ -3085,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE35945D-E516-AB45-8B17-F8B3ECBEF8EA}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3101,48 +3101,48 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>6.31</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -3221,7 +3221,7 @@
         <v>0.875</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>18.8</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -3266,7 +3266,7 @@
         <v>0.98230088495575218</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4">
         <v>81.2</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5">
         <v>12.3</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -3356,7 +3356,7 @@
         <v>0.89230769230769236</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>65.3</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -3401,7 +3401,7 @@
         <v>0.99629972247918597</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>264</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3446,7 +3446,7 @@
         <v>0.77142857142857146</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <v>107</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9">
         <v>16.899999999999999</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10">
         <v>13.6</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -3581,7 +3581,7 @@
         <v>0.98124999999999996</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11">
         <v>150</v>
